--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -832,7 +832,7 @@
         <v>9.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -882,44 +882,104 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Telstar</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Den Bosch</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15</v>
+      </c>
+      <c r="V4" t="n">
+        <v>11</v>
+      </c>
+      <c r="W4" t="n">
+        <v>29</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -953,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1001,7 +1061,7 @@
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1016,7 +1076,7 @@
         <v>7.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>101</v>
@@ -1038,7 +1098,7 @@
         <v>67</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1197,13 +1257,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1245,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="W8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X8" t="n">
         <v>51</v>
@@ -1326,10 +1386,10 @@
         <v>1.85</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1625,7 +1685,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
@@ -1640,22 +1700,22 @@
         <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.62</v>
@@ -1664,10 +1724,10 @@
         <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
@@ -1685,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB13" t="n">
         <v>15</v>
@@ -1994,36 +2054,80 @@
           <t>BFC Daugavpils</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.98</v>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>6</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2056,9 +2160,15 @@
           <t>Metta</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -2069,23 +2179,55 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6</v>
+      </c>
+      <c r="V19" t="n">
+        <v>10</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>120</v>
+      </c>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="AE19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2131,19 +2273,19 @@
         <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2176,7 +2318,7 @@
         <v>29</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -2185,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="n">
         <v>201</v>
@@ -2206,7 +2348,7 @@
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2496,10 +2638,10 @@
         <v>8.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.17</v>
@@ -2618,10 +2760,10 @@
         <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.25</v>
@@ -2740,10 +2882,10 @@
         <v>2.8</v>
       </c>
       <c r="J26" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
         <v>1.11</v>
@@ -3040,10 +3182,10 @@
         <v>1.93</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3070,19 +3212,19 @@
         <v>2.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
         <v>2.02</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U29" t="n">
         <v>10</v>
       </c>
       <c r="V29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W29" t="n">
         <v>18</v>
@@ -3097,28 +3239,28 @@
         <v>8</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB29" t="n">
         <v>15</v>
       </c>
       <c r="AC29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD29" t="n">
         <v>500</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -668,10 +668,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -784,10 +784,10 @@
         <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
@@ -832,7 +832,7 @@
         <v>9.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -2751,19 +2751,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L25" t="n">
         <v>1.25</v>
@@ -2790,7 +2790,7 @@
         <v>2.1</v>
       </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
         <v>11</v>
@@ -2799,7 +2799,7 @@
         <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X25" t="n">
         <v>17</v>
@@ -3057,49 +3057,49 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
       </c>
       <c r="K28" t="n">
+        <v>9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U28" t="n">
         <v>9.25</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="U28" t="n">
-        <v>9.5</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -3108,25 +3108,25 @@
         <v>14.5</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD28" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE28" t="n">
         <v>14</v>
@@ -3141,7 +3141,7 @@
         <v>90</v>
       </c>
       <c r="AI28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -689,7 +689,7 @@
         <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
         <v>11</v>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -731,7 +731,7 @@
         <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -778,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
         <v>1.14</v>
@@ -826,13 +826,13 @@
         <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>9.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -891,46 +891,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
@@ -942,31 +942,31 @@
         <v>29</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>9.5</v>
@@ -975,10 +975,10 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1296,7 +1296,7 @@
         <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U8" t="n">
         <v>34</v>
@@ -1305,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="W8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X8" t="n">
         <v>51</v>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
@@ -1498,36 +1498,84 @@
           <t>CSKA Sofia II</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.47</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>21</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2650,10 +2698,10 @@
         <v>4.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O24" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="P24" t="n">
         <v>1.29</v>
@@ -2873,19 +2921,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L26" t="n">
         <v>1.11</v>
@@ -2921,7 +2969,7 @@
         <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
@@ -2939,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD26" t="n">
         <v>81</v>
@@ -2954,10 +3002,10 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -3057,13 +3105,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3072,79 +3120,79 @@
         <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O28" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="P28" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S28" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T28" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="U28" t="n">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>14.5</v>
+        <v>11.25</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z28" t="n">
         <v>9</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE28" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AG28" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AI28" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
@@ -829,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -1022,10 +1022,10 @@
         <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
         <v>1.48</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1278,10 +1278,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
@@ -1404,19 +1404,19 @@
         <v>1.85</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U9" t="n">
         <v>23</v>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="W9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
@@ -1434,25 +1434,25 @@
         <v>41</v>
       </c>
       <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF9" t="n">
         <v>9</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
         <v>9</v>
@@ -1464,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1736,10 +1736,10 @@
         <v>1.62</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -1854,36 +1854,94 @@
           <t>Clermont</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>10</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10</v>
+      </c>
+      <c r="W14" t="n">
+        <v>21</v>
+      </c>
+      <c r="X14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>51</v>
+      </c>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="AE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1916,36 +1974,84 @@
           <t>Samgurali</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2040,36 +2146,84 @@
           <t>Kolkheti 1913</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2431,19 +2585,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
         <v>1.4</v>
@@ -2479,13 +2633,13 @@
         <v>11</v>
       </c>
       <c r="W21" t="n">
+        <v>29</v>
+      </c>
+      <c r="X21" t="n">
         <v>26</v>
       </c>
-      <c r="X21" t="n">
-        <v>23</v>
-      </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="n">
         <v>7.5</v>
@@ -2503,13 +2657,13 @@
         <v>351</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>26</v>
@@ -2677,49 +2831,49 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T24" t="n">
         <v>8.5</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T24" t="n">
-        <v>8</v>
-      </c>
       <c r="U24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V24" t="n">
         <v>9.5</v>
@@ -2728,16 +2882,16 @@
         <v>8</v>
       </c>
       <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA24" t="n">
         <v>12</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>11</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
@@ -2746,7 +2900,7 @@
         <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
@@ -3348,36 +3502,96 @@
           <t>Bani Yas</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>350</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3410,36 +3624,96 @@
           <t>Al Bataeh</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>13</v>
+      </c>
+      <c r="U31" t="n">
+        <v>22</v>
+      </c>
+      <c r="V31" t="n">
+        <v>13</v>
+      </c>
+      <c r="W31" t="n">
+        <v>55</v>
+      </c>
+      <c r="X31" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3472,36 +3746,92 @@
           <t>Dibba Al Hisn</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>13</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T32" t="n">
+        <v>11</v>
+      </c>
+      <c r="U32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -668,10 +668,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -778,16 +778,16 @@
         <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
         <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -1754,10 +1754,10 @@
         <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P13" t="n">
         <v>1.25</v>
@@ -1775,13 +1775,13 @@
         <v>9.5</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -1808,7 +1808,7 @@
         <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -1894,16 +1894,16 @@
         <v>1.73</v>
       </c>
       <c r="T14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
         <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -1923,7 +1923,9 @@
       <c r="AC14" t="n">
         <v>51</v>
       </c>
-      <c r="AD14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>1250</v>
+      </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -1988,10 +1990,10 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P15" t="n">
         <v>1.38</v>
@@ -2002,16 +2004,16 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U15" t="n">
         <v>6.1</v>
       </c>
       <c r="V15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W15" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>10.75</v>
@@ -2020,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA15" t="n">
         <v>6.3</v>
@@ -2038,13 +2040,13 @@
         <v>10.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI15" t="n">
         <v>40</v>
@@ -2147,13 +2149,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2174,55 +2176,55 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U17" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="V17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="W17" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE17" t="n">
         <v>11</v>
       </c>
-      <c r="Y17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ17" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -2260,10 +2262,10 @@
         <v>1.42</v>
       </c>
       <c r="H18" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2280,13 +2282,13 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U18" t="n">
         <v>5.9</v>
       </c>
       <c r="V18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W18" t="n">
         <v>8</v>
@@ -2298,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB18" t="n">
         <v>14.5</v>
@@ -2313,16 +2315,16 @@
         <v>400</v>
       </c>
       <c r="AE18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
@@ -2363,13 +2365,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H19" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2382,53 +2384,53 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="W19" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="X19" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="n">
         <v>500</v>
       </c>
       <c r="AI19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -2606,10 +2608,10 @@
         <v>2.75</v>
       </c>
       <c r="N21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P21" t="n">
         <v>1.5</v>
@@ -2831,49 +2833,49 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
         <v>9.5</v>
@@ -2888,7 +2890,7 @@
         <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
         <v>12</v>
@@ -2897,25 +2899,25 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI24" t="n">
         <v>67</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>51</v>
       </c>
       <c r="AJ24" t="n">
         <v>51</v>
@@ -2953,13 +2955,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>1.02</v>
@@ -2986,28 +2988,28 @@
         <v>3.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
         <v>8.5</v>
       </c>
       <c r="U25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
         <v>12</v>
@@ -3016,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>41</v>
@@ -3025,22 +3027,22 @@
         <v>151</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>34</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -3521,7 +3523,7 @@
         <v>1.13</v>
       </c>
       <c r="M30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="N30" t="n">
         <v>1.42</v>
@@ -3536,22 +3538,22 @@
         <v>3.65</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S30" t="n">
         <v>1.9</v>
       </c>
       <c r="T30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U30" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
         <v>10</v>
@@ -3563,7 +3565,7 @@
         <v>9.75</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB30" t="n">
         <v>20</v>
@@ -3578,7 +3580,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG30" t="n">
         <v>32</v>
@@ -3590,7 +3592,7 @@
         <v>120</v>
       </c>
       <c r="AJ30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -662,16 +662,16 @@
         <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -808,7 +808,7 @@
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
         <v>9.5</v>
@@ -826,10 +826,10 @@
         <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -850,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -930,7 +930,7 @@
         <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
@@ -960,10 +960,10 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
@@ -1266,10 +1266,10 @@
         <v>1.48</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1290,13 +1290,13 @@
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U8" t="n">
         <v>34</v>
@@ -1305,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="W8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X8" t="n">
         <v>51</v>
@@ -1317,17 +1317,17 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
@@ -1336,7 +1336,7 @@
         <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>13</v>
@@ -1389,7 +1389,7 @@
         <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1410,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T9" t="n">
         <v>13</v>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="W9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
@@ -1434,7 +1434,7 @@
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
@@ -1443,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="n">
         <v>201</v>
@@ -1452,7 +1452,7 @@
         <v>7.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
         <v>9</v>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
         <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -1781,7 +1781,7 @@
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -1855,13 +1855,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -1906,10 +1906,10 @@
         <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="n">
         <v>7.5</v>
@@ -1927,19 +1927,19 @@
         <v>1250</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2149,23 +2149,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P17" t="n">
         <v>1.4</v>
@@ -2179,52 +2179,52 @@
         <v>5.4</v>
       </c>
       <c r="U17" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="V17" t="n">
         <v>6.8</v>
       </c>
       <c r="W17" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="X17" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
         <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD17" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI17" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -2368,10 +2368,10 @@
         <v>1.09</v>
       </c>
       <c r="H19" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2384,41 +2384,41 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U19" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="V19" t="n">
         <v>10.75</v>
       </c>
       <c r="W19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X19" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
         <v>45</v>
       </c>
       <c r="AF19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG19" t="n">
         <v>55</v>
@@ -2430,7 +2430,7 @@
         <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -2836,10 +2836,10 @@
         <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
         <v>19</v>
@@ -2875,10 +2875,10 @@
         <v>9.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -2893,7 +2893,7 @@
         <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
@@ -2964,10 +2964,10 @@
         <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.25</v>
@@ -3261,13 +3261,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3279,7 +3279,7 @@
         <v>1.22</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="N28" t="n">
         <v>1.65</v>
@@ -3294,22 +3294,22 @@
         <v>3.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U28" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="X28" t="n">
         <v>12.5</v>
@@ -3321,34 +3321,34 @@
         <v>9</v>
       </c>
       <c r="AA28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD28" t="n">
         <v>500</v>
       </c>
       <c r="AE28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -3505,82 +3505,82 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I30" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M30" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="N30" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="O30" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="R30" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T30" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U30" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="V30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG30" t="n">
         <v>32</v>
@@ -3592,7 +3592,7 @@
         <v>120</v>
       </c>
       <c r="AJ30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -3627,25 +3627,25 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.85</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.9</v>
-      </c>
       <c r="I31" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
         <v>1.7</v>
@@ -3654,19 +3654,19 @@
         <v>2.05</v>
       </c>
       <c r="P31" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U31" t="n">
         <v>22</v>
@@ -3684,10 +3684,10 @@
         <v>35</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB31" t="n">
         <v>14</v>
@@ -3699,7 +3699,7 @@
         <v>400</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF31" t="n">
         <v>9.25</v>
@@ -3708,10 +3708,10 @@
         <v>8.25</v>
       </c>
       <c r="AH31" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ31" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -790,10 +790,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -850,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
@@ -1034,10 +1034,10 @@
         <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1266,10 +1266,10 @@
         <v>1.48</v>
       </c>
       <c r="J8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1278,10 +1278,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1608,36 +1608,90 @@
           <t>Chacaritas</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>150</v>
+      </c>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1670,36 +1724,90 @@
           <t>San Antonio</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>23</v>
+      </c>
+      <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>110</v>
+      </c>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1754,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O13" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P13" t="n">
         <v>1.25</v>
@@ -1977,55 +2085,55 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O15" t="n">
         <v>1.78</v>
       </c>
       <c r="P15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U15" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="V15" t="n">
         <v>6.9</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="X15" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
         <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB15" t="n">
         <v>14.5</v>
@@ -2037,19 +2145,19 @@
         <v>500</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ15" t="n">
         <v>45</v>
@@ -2086,36 +2194,84 @@
           <t>Dinamo Tbilisi</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.45</v>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2149,29 +2305,29 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O17" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -2179,25 +2335,25 @@
         <v>5.4</v>
       </c>
       <c r="U17" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="V17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="W17" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB17" t="n">
         <v>12.5</v>
@@ -2206,25 +2362,25 @@
         <v>55</v>
       </c>
       <c r="AD17" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE17" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI17" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2465,13 +2621,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.06</v>
@@ -2510,13 +2666,13 @@
         <v>12</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
         <v>23</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
         <v>29</v>
@@ -2525,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
         <v>13</v>
@@ -2552,7 +2708,7 @@
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2587,13 +2743,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -2626,19 +2782,19 @@
         <v>1.8</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
+        <v>34</v>
+      </c>
+      <c r="X21" t="n">
         <v>29</v>
-      </c>
-      <c r="X21" t="n">
-        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -2659,19 +2815,19 @@
         <v>351</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>34</v>
@@ -2836,16 +2992,16 @@
         <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J24" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L24" t="n">
         <v>1.13</v>
@@ -2854,10 +3010,10 @@
         <v>5.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P24" t="n">
         <v>1.22</v>
@@ -2875,10 +3031,10 @@
         <v>9.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -2893,7 +3049,7 @@
         <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
@@ -3077,19 +3233,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
         <v>1.11</v>
@@ -3116,13 +3272,13 @@
         <v>2.75</v>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U26" t="n">
         <v>15</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W26" t="n">
         <v>21</v>
@@ -3131,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z26" t="n">
         <v>23</v>
@@ -3149,13 +3305,13 @@
         <v>81</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>34</v>
@@ -3164,7 +3320,7 @@
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -3508,7 +3664,7 @@
         <v>1.25</v>
       </c>
       <c r="H30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I30" t="n">
         <v>10.5</v>
@@ -3517,55 +3673,55 @@
         <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M30" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="N30" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="O30" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R30" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S30" t="n">
         <v>1.88</v>
       </c>
-      <c r="S30" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T30" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U30" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="V30" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X30" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB30" t="n">
         <v>21</v>
@@ -3577,7 +3733,7 @@
         <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF30" t="n">
         <v>90</v>
@@ -3627,13 +3783,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H31" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -3654,10 +3810,10 @@
         <v>2.05</v>
       </c>
       <c r="P31" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
         <v>1.7</v>
@@ -3666,10 +3822,10 @@
         <v>2.05</v>
       </c>
       <c r="T31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V31" t="n">
         <v>13</v>
@@ -3681,19 +3837,19 @@
         <v>32</v>
       </c>
       <c r="Y31" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z31" t="n">
         <v>8.25</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD31" t="n">
         <v>400</v>
@@ -3702,16 +3858,16 @@
         <v>8.25</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
         <v>8.25</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -656,10 +656,10 @@
         <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -668,10 +668,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="O2" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -775,13 +775,13 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -802,10 +802,10 @@
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -823,7 +823,7 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -838,7 +838,7 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1257,92 +1257,92 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V8" t="n">
         <v>21</v>
       </c>
       <c r="W8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X8" t="n">
         <v>51</v>
       </c>
       <c r="Y8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="n">
         <v>6</v>
       </c>
-      <c r="AF8" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J9" t="n">
         <v>1.06</v>
@@ -1428,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1440,13 +1440,13 @@
         <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE9" t="n">
         <v>7.5</v>
@@ -1455,7 +1455,7 @@
         <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -1638,7 +1638,7 @@
         <v>2.27</v>
       </c>
       <c r="R11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
         <v>1.53</v>
@@ -1681,7 +1681,7 @@
         <v>27</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH11" t="n">
         <v>100</v>
@@ -1739,10 +1739,10 @@
         <v>1.47</v>
       </c>
       <c r="M12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N12" t="n">
         <v>2.35</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.32</v>
       </c>
       <c r="O12" t="n">
         <v>1.47</v>
@@ -1754,50 +1754,50 @@
         <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>1.65</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U12" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W12" t="n">
         <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
         <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA12" t="n">
         <v>5.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
         <v>110</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>45</v>
@@ -1806,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -1963,25 +1963,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N14" t="n">
         <v>2.35</v>
@@ -2011,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X14" t="n">
         <v>23</v>
@@ -2305,23 +2305,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>4.85</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P17" t="n">
         <v>1.37</v>
@@ -2332,19 +2332,19 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U17" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="V17" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="W17" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Y17" t="n">
         <v>22</v>
@@ -2353,34 +2353,34 @@
         <v>8.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD17" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2415,13 +2415,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2438,55 +2438,55 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="V18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="X18" t="n">
         <v>9.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
         <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD18" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -2521,13 +2521,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2540,53 +2540,53 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U19" t="n">
         <v>5.6</v>
       </c>
       <c r="V19" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="n">
         <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
         <v>120</v>
       </c>
       <c r="AG19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AI19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ19" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -2636,16 +2636,16 @@
         <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2764,10 +2764,10 @@
         <v>2.75</v>
       </c>
       <c r="N21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
         <v>1.5</v>
@@ -2992,7 +2992,7 @@
         <v>1.22</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I24" t="n">
         <v>9.5</v>
@@ -3004,10 +3004,10 @@
         <v>12</v>
       </c>
       <c r="L24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N24" t="n">
         <v>1.4</v>
@@ -3022,19 +3022,19 @@
         <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U24" t="n">
         <v>7.5</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -3046,10 +3046,10 @@
         <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
@@ -3073,7 +3073,7 @@
         <v>126</v>
       </c>
       <c r="AI24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ24" t="n">
         <v>51</v>
@@ -3111,31 +3111,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P25" t="n">
         <v>1.33</v>
@@ -3144,10 +3144,10 @@
         <v>3.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T25" t="n">
         <v>8.5</v>
@@ -3186,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3195,7 +3195,7 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -3420,10 +3420,10 @@
         <v>1.55</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3435,7 +3435,7 @@
         <v>1.22</v>
       </c>
       <c r="M28" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
         <v>1.65</v>
@@ -3447,7 +3447,7 @@
         <v>1.34</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R28" t="n">
         <v>1.72</v>
@@ -3456,7 +3456,7 @@
         <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U28" t="n">
         <v>8.25</v>
@@ -3465,13 +3465,13 @@
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X28" t="n">
         <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
         <v>9</v>
@@ -3480,10 +3480,10 @@
         <v>8.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD28" t="n">
         <v>500</v>
@@ -3545,7 +3545,7 @@
         <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3554,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M29" t="n">
         <v>3.5</v>
@@ -3563,7 +3563,7 @@
         <v>1.82</v>
       </c>
       <c r="O29" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3575,25 +3575,25 @@
         <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T29" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.75</v>
       </c>
       <c r="W29" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="n">
         <v>8</v>
@@ -3602,7 +3602,7 @@
         <v>7.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
         <v>65</v>
@@ -3611,19 +3611,19 @@
         <v>500</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
         <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="n">
         <v>40</v>
@@ -3908,10 +3908,10 @@
         <v>1.17</v>
       </c>
       <c r="H32" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3922,40 +3922,40 @@
         <v>5.9</v>
       </c>
       <c r="N32" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="O32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="P32" t="n">
         <v>1.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="R32" t="n">
         <v>1.88</v>
       </c>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T32" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U32" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="V32" t="n">
         <v>10.25</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="n">
         <v>10.5</v>
@@ -3964,7 +3964,7 @@
         <v>15</v>
       </c>
       <c r="AB32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC32" t="n">
         <v>90</v>
@@ -3973,16 +3973,16 @@
         <v>600</v>
       </c>
       <c r="AE32" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG32" t="n">
         <v>40</v>
       </c>
       <c r="AH32" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AI32" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -650,10 +650,10 @@
         <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -674,22 +674,22 @@
         <v>1.99</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
         <v>11</v>
@@ -698,13 +698,13 @@
         <v>29</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>7</v>
@@ -716,22 +716,22 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -775,7 +775,7 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -814,10 +814,10 @@
         <v>9.5</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
@@ -838,7 +838,7 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -891,31 +891,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -948,7 +948,7 @@
         <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
@@ -975,7 +975,7 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>
@@ -1299,7 +1299,7 @@
         <v>12</v>
       </c>
       <c r="U8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V8" t="n">
         <v>21</v>
@@ -1333,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH8" t="n">
         <v>10</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
         <v>1.06</v>
@@ -1398,16 +1398,16 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="n">
         <v>1.8</v>
@@ -1428,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="X9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1437,10 +1437,10 @@
         <v>9.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>51</v>
@@ -1452,10 +1452,10 @@
         <v>7.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -2195,52 +2195,52 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H16" t="n">
         <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="U16" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="V16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="W16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA16" t="n">
         <v>5.4</v>
@@ -2255,19 +2255,19 @@
         <v>450</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF16" t="n">
         <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
         <v>37</v>
@@ -2305,20 +2305,20 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O17" t="n">
         <v>1.72</v>
@@ -2332,49 +2332,49 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="U17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="V17" t="n">
         <v>6.8</v>
       </c>
       <c r="W17" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>11.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
       <c r="AH17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="n">
         <v>40</v>
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>6.25</v>
@@ -2998,10 +2998,10 @@
         <v>9.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>21</v>
       </c>
       <c r="K24" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L24" t="n">
         <v>1.11</v>
@@ -3016,10 +3016,10 @@
         <v>2.75</v>
       </c>
       <c r="P24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R24" t="n">
         <v>1.83</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -668,10 +668,10 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -790,10 +790,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -802,34 +802,34 @@
         <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U3" t="n">
         <v>9.5</v>
       </c>
       <c r="V3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -900,10 +900,10 @@
         <v>2.35</v>
       </c>
       <c r="J4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -912,10 +912,10 @@
         <v>3.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>
@@ -1290,53 +1290,53 @@
         <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="W8" t="n">
+        <v>126</v>
+      </c>
+      <c r="X8" t="n">
         <v>81</v>
       </c>
-      <c r="X8" t="n">
-        <v>51</v>
-      </c>
       <c r="Y8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="n">
         <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF8" t="n">
         <v>5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>9.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.06</v>
@@ -1428,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1437,10 +1437,10 @@
         <v>9.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>51</v>
@@ -1449,13 +1449,13 @@
         <v>251</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -1620,16 +1620,16 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1638,16 +1638,16 @@
         <v>2.27</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="U11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.75</v>
@@ -1662,35 +1662,35 @@
         <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
         <v>7.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC11" t="n">
         <v>150</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF11" t="n">
         <v>27</v>
       </c>
       <c r="AG11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
         <v>100</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -1760,22 +1760,22 @@
         <v>1.65</v>
       </c>
       <c r="T12" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U12" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W12" t="n">
         <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="n">
         <v>6.6</v>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
         <v>3.95</v>
@@ -2208,69 +2208,69 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U16" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="V16" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB16" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13</v>
-      </c>
       <c r="AC16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD16" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2305,82 +2305,82 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P17" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U17" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="V17" t="n">
         <v>6.8</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="X17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
         <v>11.25</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>11.5</v>
       </c>
       <c r="AF17" t="n">
         <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -2415,13 +2415,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H18" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2431,14 +2431,14 @@
         <v>1.65</v>
       </c>
       <c r="O18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U18" t="n">
         <v>5.7</v>
@@ -2447,7 +2447,7 @@
         <v>7.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>9.5</v>
@@ -2459,19 +2459,19 @@
         <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD18" t="n">
         <v>450</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF18" t="n">
         <v>32</v>
@@ -2480,7 +2480,7 @@
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI18" t="n">
         <v>55</v>
@@ -2998,10 +2998,10 @@
         <v>9.5</v>
       </c>
       <c r="J24" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L24" t="n">
         <v>1.11</v>
@@ -3233,19 +3233,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L26" t="n">
         <v>1.11</v>
@@ -3260,10 +3260,10 @@
         <v>2.75</v>
       </c>
       <c r="P26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R26" t="n">
         <v>1.4</v>
@@ -3272,7 +3272,7 @@
         <v>2.75</v>
       </c>
       <c r="T26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U26" t="n">
         <v>15</v>
@@ -3293,16 +3293,16 @@
         <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -3311,7 +3311,7 @@
         <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>34</v>
@@ -3320,7 +3320,7 @@
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">

--- a/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-20.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -734,7 +734,7 @@
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -778,16 +778,16 @@
         <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
@@ -814,10 +814,10 @@
         <v>9.5</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
@@ -2085,23 +2085,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P15" t="n">
         <v>1.37</v>
@@ -2115,49 +2115,49 @@
         <v>5.4</v>
       </c>
       <c r="U15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="V15" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="W15" t="n">
         <v>8.75</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
         <v>9.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD15" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
         <v>45</v>
@@ -2195,20 +2195,20 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O16" t="n">
         <v>1.57</v>
@@ -2225,28 +2225,28 @@
         <v>5.3</v>
       </c>
       <c r="U16" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="V16" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="W16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA16" t="n">
         <v>5.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>65</v>
@@ -2255,22 +2255,22 @@
         <v>500</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2521,13 +2521,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H19" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="I19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2543,28 +2543,28 @@
         <v>8.25</v>
       </c>
       <c r="U19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y19" t="n">
         <v>32</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="n">
         <v>150</v>
@@ -2574,7 +2574,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="n">
         <v>50</v>
@@ -2583,10 +2583,10 @@
         <v>600</v>
       </c>
       <c r="AI19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -3661,49 +3661,49 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I30" t="n">
         <v>10.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T30" t="n">
         <v>9.75</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T30" t="n">
-        <v>9.25</v>
-      </c>
       <c r="U30" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
@@ -3718,25 +3718,25 @@
         <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF30" t="n">
         <v>80</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>90</v>
       </c>
       <c r="AG30" t="n">
         <v>32</v>
@@ -3745,10 +3745,10 @@
         <v>350</v>
       </c>
       <c r="AI30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
